--- a/MassaDeDados.xlsx
+++ b/MassaDeDados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>NOME</t>
   </si>
@@ -48,10 +48,126 @@
 -- Aatrox</t>
   </si>
   <si>
-    <t>?Lista de habilidades</t>
-  </si>
-  <si>
     <t>Prós,contras</t>
+  </si>
+  <si>
+    <t>Akali</t>
+  </si>
+  <si>
+    <t>Ahri</t>
+  </si>
+  <si>
+    <t>Mago</t>
+  </si>
+  <si>
+    <t>Assassino</t>
+  </si>
+  <si>
+    <t>IMAGEM</t>
+  </si>
+  <si>
+    <t>Aatrox.jpg</t>
+  </si>
+  <si>
+    <t>Ahri.jpg</t>
+  </si>
+  <si>
+    <t>Akali.jpg</t>
+  </si>
+  <si>
+    <t>Ao contrário de outras raposas que povoavam os bosques do sul de Ionia, Ahri sempre sentiu uma estranha conexão com o mundo mágico que existia à sua volta; uma ligação incompleta, de certa forma. Em seu coração ela sentia que estava vivendo em um corpo inadequado, e sonhava em um dia se tornar humana. Este objetivo parecia estar eternamente fora de alcance, até que ela se viu nos rastros de uma guerra humana. Era uma cena terrível: o terreno obscurecido pelas formas dos soldados feridos e abatidos. Por um deles ela se sentiu atraída: um homem de robe envolto por um diminuto campo mágico, cuja vida se esvaía rapidamente. Ela se aproximou e algo dentro dela aconteceu, chegando ao homem de uma maneira que ela não pode compreender. Sua essência vital foi derramada sobre ela, carregada em fios invisíveis de magia. A sensação era, ao mesmo tempo, intoxicante e esplendorosa. Ao fim de seu delírio, estava em deleite quando se viu transformada. A pelagem branca e lisa deu lugar a um corpo alto e esguio - a mesma forma dos humanos que jaziam aos seus pés.
+No entanto, embora parecesse humana, sabia que na verdade a transformação fora incompleta. Uma criatura astuta, adaptou-se aos costumes da sociedade humana e usou sua beleza inigualável para atrair homens inocentes, enfeitiçando-os com sedução para consumir a essência de vida que neles havia. Alimentar-se de seus desejos a aproximou cada vez mais de seu sonho, mas, conforme ela tirava vidas, uma estranha sensação de arrependimento passou a se acumular. Estava incomodada com ações que nunca a atrapalharam enquanto raposa e percebeu que não poderia superar os limites de sua moralidade em evolução. Em busca de uma solução, Ahri encontrou o Instituto da Guerra, lar dos magos mais talentosos de Runeterra. Eles a ofereceram uma chance de manter sua humanidade sem causar mais danos através do serviço em League of Legends.</t>
+  </si>
+  <si>
+    <t>Existe uma antiga ordem originária das Ilhas Ionianas dedicada à preservação do equilíbrio. Ordem, Caos, Luz, Escuridão -- todos devem existir em perfeita harmonia, pois assim é o universo. Esta ordem é conhecida como Kinkou, e coordena um triunvirato de guerreiros das sombras para apoiarem suas causas no mundo. Akali faz parte desses guerreiros das sombras, encarregada com o dever sagrado de Podar a Árvore - eliminando aqueles que ameaçam o equilíbrio de Valoran.
+Uma pródiga lutadora marcial, Akali começou a treinar com sua mãe quando ainda era bem pequena. A disciplina ensinada por sua mãe era rígida e implacável, mas com um princípio fundamental: ''Fazemos o que deve ser feito''. Quando os Kinkou a apresentaram à ordem, aos seus quatorze anos, ela podia partir um elo de corrente com apenas um golpe de mão. Não havia dúvida - ela deveria suceder sua mãe como o Punho das Sombras. Exercendo esse papel, ela fez coisas que outros poderiam considerar moralmente questionáveis, mas ela não iria quebrar a doutrina inviolável da sua mãe. Uniu-se a seus companheiros Shen e Kennen para reforçar o equilíbrio em Valoran. Essa busca sagrada levou o triunvirato aos Campos da Justiça.</t>
+  </si>
+  <si>
+    <t>EFEITO</t>
+  </si>
+  <si>
+    <t>.+400 de Vida
+.+100 de Poder de Habilidade
+Passivo ÚNICO: Feitiços e habilidades que causam dano aplicam redução de Velocidade de Movimento com base em seu tipo:
+Alvo único: 40% de redução por 1.5 segundos. 
+Área de ação: 40% de redução por 1 segundos.
+Dano ao longo do tempo ou multi-acertos: 20% de redução por 1 segundos.
+Invocação de servos: 20% de redução por 1 segundos.
+(Se uma habilidade se encaixar em mais de uma categoria, ela usa o valor mais fraco de redução.)</t>
+  </si>
+  <si>
+    <t>Cetro de Cristal de Rylai</t>
+  </si>
+  <si>
+    <t>Cetro de Cristal de Rylai.png</t>
+  </si>
+  <si>
+    <t>Sinal de Sterak.png</t>
+  </si>
+  <si>
+    <t>Sinal de Sterak</t>
+  </si>
+  <si>
+    <t>.+500 de Vida
+.+25% de Dano de Ataque base 
+Passivo ÚNICO: Ao receber entre 400 e 1800 de dano, com base no nível do campeão dentre 5 segundos, recebe Fúria de Sterak por 8 segundos (45 s de Tempo de Recarga). 
+Fúria de Sterak: Aumenta em tamanho e força, recebendo +25% de Dano de Ataque base adicional e um Escudo de decaimento rápido com 30% de sua Vida máxima.</t>
+  </si>
+  <si>
+    <t>Eco de Luden.png</t>
+  </si>
+  <si>
+    <t>Eco de Luden</t>
+  </si>
+  <si>
+    <t>100 de Poder de Habilidade
+.+10% de Velocidade de Movimento
+Passivo ÚNICO: Recebe cargas ao movimentar-se ou conjurar. Com 100 cargas, a próxima habilidade que acertar consome todas as cargas para causar 100 (+10% de PdH) de Dano Mágico adicional a até 4 alvos ao contato.</t>
+  </si>
+  <si>
+    <t>Disciplinas Gêmeas , Marca do Assassino, Proteção do Crepúsculo, Corte Crescente , Dança das Sombras</t>
+  </si>
+  <si>
+    <t>Poço de Sangue, Voo Sombrio , Sede de Sangue / Preço em Sangue, Lâminas da Aflição , Massacre</t>
+  </si>
+  <si>
+    <t>Furto de Essência , Orbe da Ilusão , Fogo de Raposa , Encanto, Ímpeto Espiritual</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Imagem</t>
+  </si>
+  <si>
+    <t>Crimson Raptor.png</t>
+  </si>
+  <si>
+    <t>Crimson Raptor</t>
+  </si>
+  <si>
+    <t>Habilidade</t>
+  </si>
+  <si>
+    <t>Usando "smite" recebe-se visão verdadeira por um curto periodo de tempo</t>
+  </si>
+  <si>
+    <t>Greater Murk Wolf.png</t>
+  </si>
+  <si>
+    <t>Greater Murk Wolf</t>
+  </si>
+  <si>
+    <t>Usando "smite" invoca um espirito q percorre a selva revelando inimigos proximos porum curto periodo de tempo</t>
+  </si>
+  <si>
+    <t>Dragon.png</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>A cada vez q se elimina o Dragao, recebe-se um buf permanente, acumulando até 5 vezes</t>
   </si>
 </sst>
 </file>
@@ -82,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -105,16 +221,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,22 +566,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:G2"/>
+  <dimension ref="B1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,21 +602,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="2:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -473,26 +670,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="104.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/MassaDeDados.xlsx
+++ b/MassaDeDados.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael\Desktop\EngSoft\Zodiac-Tech\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Champions" sheetId="1" r:id="rId1"/>
     <sheet name="Itens" sheetId="2" r:id="rId2"/>
     <sheet name="Mobs" sheetId="3" r:id="rId3"/>
+    <sheet name="Aprendizagem" sheetId="4" r:id="rId4"/>
+    <sheet name="Videos" sheetId="5" r:id="rId5"/>
+    <sheet name="Inf. sobre Patches" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>NOME</t>
   </si>
@@ -169,12 +177,139 @@
   <si>
     <t>A cada vez q se elimina o Dragao, recebe-se um buf permanente, acumulando até 5 vezes</t>
   </si>
+  <si>
+    <t>Campões</t>
+  </si>
+  <si>
+    <t>League of Legends está cheio de campeões de vários tipos, de mentes malignas a monstros épicos. Diferentes campeões assumem diferentes papéis e usam diferentes estratégias, por isso não desanime se o primeiro que você tentar não se adequar ao seu estilo de jogo.</t>
+  </si>
+  <si>
+    <t>Controlando seu campeão
+Salvo alguns casos, os campeões usam o esquema de controle tradicional de jogos estratégia.
+Para mover seu campeão, clique com o botão direito no terreno para onde quer enviá-lo
+Para atacar um inimigo, clique com o botão direito no alvo
+Para lançar um feitiço, clique com o botão esquerdo no ícone ou use o atalho correspondente (Q, W, E e R por padrão), e depois clique no alvo.
+Os controles podem ser personalizados no menu Opções.</t>
+  </si>
+  <si>
+    <t>Existem três caminhos que conectam sua base à do inimigo. Esses caminhos são chamadas rotas, e é por elas que as equipes inimigas se encontram. Para vencer a partida, você deve avançar pela rota até o coração da base inimiga e destruir o nexus.</t>
+  </si>
+  <si>
+    <t>Tropas são soldados controlados pela IA que surgem do nexus e marcham pelas rotas até a base inimiga, atacando os inimigos que encontram pelo caminho. Aplicar o golpe final numa tropa concede uma recompensa em Ouro para o seu campeão. Tropas preferem lutar umas contra as outras, mas atacarão seu campeão se ele estiver sozinho na rota. Elas também atacarão qualquer campeão que ataque um campeão aliado delas. Não as subestime tropas, principalmente no começo do jogo!</t>
+  </si>
+  <si>
+    <t>As Torres são poderosas estruturas defensivas que guardam as rotas distribuídas a intervalos regulares, atacando os inimigos que se aproximam com rajadas letais de energia. Como as tropas, elas preferem atacar outros alvos a você, a menos que você comece a lutar com outro campeão dentro da área de alcance. Uma Torre hostil só ataca você se você estiver atacando um campeão inimigo ou se você for o último alvo ao alcance. Evite começar uma luta debaixo de uma Torre inimiga.</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Estruturas importantes conhecidas como inibidores estão localizadas onde as rotas se ligam à base nos dois lados do mapa. Destruir um inibidor cria uma poderosa super-tropa toda vez que novas tropas surgem na rota. Super-tropas são extremamente resistentes, ideais para liderar a investida contra o nexus inimigo. Os inibidores ressurgem depois de cinco minutos — aproveite sua vantagem nesse intervalo.
+Destruir os três inibidores de um inimigo fará com que surjam duas super-tropas em cada rota toda vez que tropas são criadas.</t>
+  </si>
+  <si>
+    <t>Inibidores</t>
+  </si>
+  <si>
+    <t>No coração de cada base fica o Nexus. Protegido por duas Torres, o Nexus é a estrutura responsável por fazer surgir tropas periodicamente nas rotas. Quando uma equipe destrói o Nexus inimigo, o jogo termina e a equipe é declarada vitoriosa.</t>
+  </si>
+  <si>
+    <t>O Nexus</t>
+  </si>
+  <si>
+    <t>Numa partida de League of Legends, seu campeão ganha Ouro destruindo unidades e estruturas inimigas. Aplicar o golpe final numa tropa ou campeão, assistência ao matar um campeão e adquirir certas runas ou itens são apenas algumas maneiras de gerar Ouro extra. Você pode usá-lo para comprar poderosos itens na loja junto à plataforma do invocador. Basta clicar na loja ou no botão próximo ao seu total de Ouro para abri-la.
+Os itens concedem bônus assim que são comprados, não é preciso equipá-los
+Diferentes campeões e estilos de jogo são beneficiados por diferentes combinações de itens, por isso suas compras devem ser orientadas pela sua estratégia
+Os itens mais poderosos são criados por meio de combinações de itens menores, não hesite em comprar itens componentes
+Itens consumíveis, tais como poções, sentinelas e itens que requerem ativação, são usados ao se clicar no inventário ou por meio dos atalhos 1 - 6</t>
+  </si>
+  <si>
+    <t>Itens</t>
+  </si>
+  <si>
+    <t>A selva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetivo </t>
+  </si>
+  <si>
+    <t>Entre as rotas, fica a selva, uma expansão repleta de monstros neutros. Esses monstros não atacam a base inimiga, mas podem ser derrotados para se obter Ouro e efeitos temporários. Um jogador pode assumir o papel de caçador da selva e usar essas áreas como sua principal fonte de recursos. Caçadores da selva geralmente vagam entre as rotas, ajudando os aliados quando necessário</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hdt0qk5eTfk&amp;list=PLorRHLEoxRIJXwTXe6x83ylVA776tdRQI</t>
+  </si>
+  <si>
+    <t>Central de Aprendizado</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLC6tQcehKF2MLehJqdPAUiqRhHROQ_jEq</t>
+  </si>
+  <si>
+    <t>Campeonato Mundial 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma playlist com todas as partidas profissionais do campeonato mundial 2015, com narrativa em BR </t>
+  </si>
+  <si>
+    <t>Uma playlist  com diversos videos tutoriais ensinando tudo que você que precisa saber sobre o mundo de League of Legends</t>
+  </si>
+  <si>
+    <t>Tropas</t>
+  </si>
+  <si>
+    <t>Rotas</t>
+  </si>
+  <si>
+    <t>Streams ao vivo em determinados horários</t>
+  </si>
+  <si>
+    <t>http://www.twitch.tv/directory/game/League%20of%20Legends/pt</t>
+  </si>
+  <si>
+    <t>Periodicamente jogadores de Rank mais elevado, disponibilizam partidas ao vivo para você poder acompanhar em tempo real ou rever os que você perdeu.</t>
+  </si>
+  <si>
+    <t>Patch</t>
+  </si>
+  <si>
+    <t>Informações</t>
+  </si>
+  <si>
+    <t>5.21</t>
+  </si>
+  <si>
+    <t>5.20</t>
+  </si>
+  <si>
+    <t>5.19</t>
+  </si>
+  <si>
+    <t>http://br.leagueoflegends.com/pt/news/game-updates/patch/notas-da-atualizacao-521</t>
+  </si>
+  <si>
+    <t>http://br.leagueoflegends.com/pt/news/game-updates/patch/notas-da-atualizacao-520</t>
+  </si>
+  <si>
+    <t>http://br.leagueoflegends.com/pt/news/game-updates/patch/notas-da-atualizacao-519</t>
+  </si>
+  <si>
+    <t>O Jogo se baseia numa partida de 5 jogadores contra 5(jogadores ou IA) no modo normal, tem também modo de 3 v 3.Em ambos os modos cada jogador escolhe um campeão para a partida, nela cada time tem que defender sua base, e tentar destruir a base do time oponente, no mapa normal(5v5) há 3 rotas principais, cada time conta com tropas controladas por IA, torres defencivas posicionadas pelas rotas, alem da selva onde há monstrons neutros que podem ser caçados, durante o jogo a estrategia é evoluir seu campeao, conseguindo experiencia e ouro ao abater ou ajudar a abater outras unidades, sejam as tropas, monstros neutrais, torres ou campeões adversarios, com o ouro recebido se compram itens durante a partida que almentam os atributos e/ou concedem habilidades especiais ao seu campeão. O que ajuda e muito a alcançar o objetivo final que é a destruição do Nexus(parte mais importante de cada base).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,16 +324,62 @@
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -249,11 +430,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -265,8 +473,69 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -274,6 +543,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -322,7 +594,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,7 +629,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -736,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -794,4 +1066,323 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="18.85546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/MassaDeDados.xlsx
+++ b/MassaDeDados.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafael\Desktop\EngSoft\Zodiac-Tech\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Champions" sheetId="1" r:id="rId1"/>
@@ -594,7 +589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,7 +624,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1008,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1311,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
